--- a/Pandas/people.xlsx
+++ b/Pandas/people.xlsx
@@ -12,79 +12,269 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Job</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="83">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Maritza</t>
+  </si>
+  <si>
+    <t>Front Developer</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Deivi</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Marisol</t>
+  </si>
+  <si>
+    <t>Mmartha</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Melanye</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Manolo</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>Anabelle</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Juana</t>
+  </si>
+  <si>
+    <t>Juanca</t>
+  </si>
+  <si>
+    <t>Manola</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Baster</t>
+  </si>
+  <si>
+    <t>Bernando</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Margarette</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Labanda</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Dvid</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Anegl</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
+    <t>Arnaldo</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Ned</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>Milhouse</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Marge</t>
-  </si>
-  <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Home</t>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Dayan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +282,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,15 +599,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,15 +1108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,131 +1127,3371 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10001</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>72000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10002</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>72000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>72000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>72000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>74000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>74000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>74000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>74000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>75000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>77000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>77000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>77000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10003</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>77000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>77000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>77000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>77000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>77000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>77000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>79000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>80000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>80000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>80000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>80000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>80000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>80000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>80000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>80000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>80000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>80000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>80000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>80000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>80000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>81000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>82000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>82000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>82000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>82000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>82000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>82000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>82000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>82000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>82000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>82000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>82000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>82000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>82000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>82000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>82000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>82000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>82000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52">
+        <v>82000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>82000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>82000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>82000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>82000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>82000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>82000</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>82000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>82000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>82000</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>32</v>
+      </c>
+      <c r="E62">
+        <v>82000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>82000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
+      <c r="E64">
+        <v>82000</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>82000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>33</v>
+      </c>
+      <c r="E66">
+        <v>82000</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>34</v>
+      </c>
+      <c r="E67">
+        <v>82000</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+      <c r="E68">
+        <v>82000</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>82000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>82000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>35</v>
+      </c>
+      <c r="E71">
+        <v>82000</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>82000</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>82000</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>39</v>
+      </c>
+      <c r="E74">
+        <v>82000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>83000</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>83000</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>83000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>83000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>83000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>29</v>
+      </c>
+      <c r="E80">
+        <v>83000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>83000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>33</v>
+      </c>
+      <c r="E82">
+        <v>83000</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>85000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>23</v>
+      </c>
+      <c r="E84">
+        <v>85000</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>85000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>23</v>
+      </c>
+      <c r="E86">
+        <v>85000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>23</v>
+      </c>
+      <c r="E87">
+        <v>85000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>85000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>85000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>85000</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>85000</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <v>85000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>24</v>
+      </c>
+      <c r="E93">
+        <v>85000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>24</v>
+      </c>
+      <c r="E94">
+        <v>85000</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95">
+        <v>85000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
+      </c>
+      <c r="E96">
+        <v>85000</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>85000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>26</v>
+      </c>
+      <c r="E98">
+        <v>85000</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>85000</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>28</v>
+      </c>
+      <c r="E100">
+        <v>85000</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>85000</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>29</v>
+      </c>
+      <c r="E102">
+        <v>85000</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>85000</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>85000</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>31</v>
+      </c>
+      <c r="E105">
+        <v>85000</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>31</v>
+      </c>
+      <c r="E106">
+        <v>85000</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>85000</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>85000</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <v>85000</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>32</v>
+      </c>
+      <c r="E110">
+        <v>85000</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>85000</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>85000</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>33</v>
+      </c>
+      <c r="E113">
+        <v>86000</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>33</v>
+      </c>
+      <c r="E114">
+        <v>86000</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>35</v>
+      </c>
+      <c r="E115">
+        <v>86000</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>23</v>
+      </c>
+      <c r="E116">
+        <v>87000</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>32</v>
+      </c>
+      <c r="E117">
+        <v>87000</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>87000</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>87000</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>87000</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>87000</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>35</v>
+      </c>
+      <c r="E122">
+        <v>87000</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>35</v>
+      </c>
+      <c r="E123">
+        <v>87000</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>35</v>
+      </c>
+      <c r="E124">
+        <v>87000</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>36</v>
+      </c>
+      <c r="E125">
+        <v>87000</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>37</v>
+      </c>
+      <c r="E126">
+        <v>87000</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>38</v>
+      </c>
+      <c r="E127">
+        <v>87000</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="E128">
+        <v>87000</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>39</v>
+      </c>
+      <c r="E129">
+        <v>87000</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>31</v>
+      </c>
+      <c r="E130">
+        <v>87600</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>31</v>
+      </c>
+      <c r="E131">
+        <v>87800</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>31</v>
+      </c>
+      <c r="E132">
+        <v>87800</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>31</v>
+      </c>
+      <c r="E133">
+        <v>87800</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>31</v>
+      </c>
+      <c r="E134">
+        <v>87800</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>33</v>
+      </c>
+      <c r="E135">
+        <v>87800</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>73</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>31</v>
+      </c>
+      <c r="E136">
+        <v>89000</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>37</v>
+      </c>
+      <c r="E137">
+        <v>89000</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>30</v>
+      </c>
+      <c r="E138">
+        <v>90000</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>32</v>
+      </c>
+      <c r="E139">
+        <v>90000</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>35</v>
+      </c>
+      <c r="E140">
+        <v>90000</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>51</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>35</v>
+      </c>
+      <c r="E141">
+        <v>92000</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>34</v>
+      </c>
+      <c r="E142">
+        <v>93000</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>38</v>
+      </c>
+      <c r="E143">
+        <v>93000</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>31</v>
+      </c>
+      <c r="E144">
+        <v>95000</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>31</v>
+      </c>
+      <c r="E145">
+        <v>95000</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>31</v>
+      </c>
+      <c r="E146">
+        <v>95000</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>95000</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>38</v>
+      </c>
+      <c r="E148">
+        <v>95000</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>39</v>
+      </c>
+      <c r="E149">
+        <v>95000</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>31</v>
+      </c>
+      <c r="E150">
+        <v>97000</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>31</v>
+      </c>
+      <c r="E151">
+        <v>97000</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>31</v>
+      </c>
+      <c r="E152">
+        <v>97000</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>35</v>
+      </c>
+      <c r="E153">
+        <v>98000</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>78</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
+      <c r="B154" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>35</v>
+      </c>
+      <c r="E154">
+        <v>100000</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>38</v>
+      </c>
+      <c r="E155">
+        <v>102000</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>39</v>
+      </c>
+      <c r="E156">
+        <v>102000</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>42</v>
+      </c>
+      <c r="E157">
+        <v>102000</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>38</v>
+      </c>
+      <c r="E158">
+        <v>105000</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>55</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+      <c r="E159">
+        <v>110000</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>42</v>
+      </c>
+      <c r="E160">
+        <v>110000</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" t="s">
+        <v>80</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>42</v>
+      </c>
+      <c r="E161">
+        <v>120000</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>42</v>
+      </c>
+      <c r="E162">
+        <v>120000</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>80</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>42</v>
+      </c>
+      <c r="E163">
+        <v>120000</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>42</v>
+      </c>
+      <c r="E164">
+        <v>120000</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>42</v>
+      </c>
+      <c r="E165">
+        <v>120000</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>43</v>
+      </c>
+      <c r="E166">
+        <v>120000</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>43</v>
+      </c>
+      <c r="E167">
+        <v>120000</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" t="s">
+        <v>80</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>41</v>
+      </c>
+      <c r="E168">
+        <v>122000</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>43</v>
+      </c>
+      <c r="E169">
+        <v>123000</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
